--- a/biology/Zoologie/Grue_couronnée/Grue_couronnée.xlsx
+++ b/biology/Zoologie/Grue_couronnée/Grue_couronnée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grue_couronn%C3%A9e</t>
+          <t>Grue_couronnée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Balearica pavonina
 La Grue couronnée (Balearica pavonina) est une espèce d'oiseaux de la famille des grues.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grue_couronn%C3%A9e</t>
+          <t>Grue_couronnée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La grue couronnée mesure environ 1 m de haut pour un poids de 3-4 kg et une envergure de 2 m. Le plumage est principalement gris avec des ailes blanches dont quelques plumes sont plus colorées.
 Le cou est noirâtre (d'où le nom anglais de l'oiseau Black crowned crane) avec un petit sac gulaire, la joue est blanche en haut et rose en bas.
-On la différencie de la grue royale (en anglais Grey crowned crane) dont le cou est gris avec un sac gulaire beaucoup plus important, et une joue blanche surmontée d'une tache rouge[1].
+On la différencie de la grue royale (en anglais Grey crowned crane) dont le cou est gris avec un sac gulaire beaucoup plus important, et une joue blanche surmontée d'une tache rouge.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grue_couronn%C3%A9e</t>
+          <t>Grue_couronnée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parade nuptiale : cet oiseau chante en sautant dans les airs pour convaincre sa partenaire.
 La Grue couronnée et la Grue royale, proche parente, sont les seules grues à pouvoir nicher dans un arbre, grâce à un orteil situé à l'arrière des pattes. Ce comportement est l'une des raisons pour lesquelles on pense que les relativement petites grues du genre Balearica ressemblent aux espèces ancestrales de Gruidae.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grue_couronn%C3%A9e</t>
+          <t>Grue_couronnée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme toutes les grues, la Grue couronnée se nourrit d'insectes, de reptiles, et de petits mammifères, mais aussi de vers de terre et de plantes.
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grue_couronn%C3%A9e</t>
+          <t>Grue_couronnée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,11 +628,13 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit jusqu'à quarante ans.
 Cette espèce est menacée, particulièrement à l'ouest, où son habitat est détruit ou dégradé.
-Dans la tradition initiatique bambara, la grue couronnée est à l'origine de la parole et les hommes ont appris à parler en l'imitant. Les Africains pensent que cet oiseau est conscient de ses dons, qu'il a la connaissance de lui-même, et de ce fait il serait à l'origine de la parole de Dieu et de la connaissance que l'homme a de Dieu[2].
+Dans la tradition initiatique bambara, la grue couronnée est à l'origine de la parole et les hommes ont appris à parler en l'imitant. Les Africains pensent que cet oiseau est conscient de ses dons, qu'il a la connaissance de lui-même, et de ce fait il serait à l'origine de la parole de Dieu et de la connaissance que l'homme a de Dieu.
 </t>
         </is>
       </c>
